--- a/security-configuration-hardening-guide/cloud-foundation/9.0/vmware-cloud-foundation-security-configuration-guide-90-controls.xlsx
+++ b/security-configuration-hardening-guide/cloud-foundation/9.0/vmware-cloud-foundation-security-configuration-guide-90-controls.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854092F-6C71-46A2-86C3-C935CFC4A300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vmware\Projects\Security Configuration Guide\Security Configuration Guide 9\900-20250822-02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C1962-329B-4107-8AC0-77A961E694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="8172" windowWidth="56364" windowHeight="16308" xr2:uid="{378E67A8-D089-4FA6-9DFE-D37B9D846B86}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{378E67A8-D089-4FA6-9DFE-D37B9D846B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -5063,7 +5068,10 @@
 Other parameters are set securely, but can be changed, so must be audited.</t>
   </si>
   <si>
-    <t>Version 900-20250822-01</t>
+    <t>Version 900-20250823-01</t>
+  </si>
+  <si>
+    <t>PCI DSS 4.0.1 ID</t>
   </si>
   <si>
     <t>IAC-22
@@ -5505,9 +5513,6 @@
   <si>
     <t>2.2.7
 4.2.1</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -5581,7 +5586,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5619,37 +5624,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5693,12 +5672,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5706,7 +5679,11 @@
   <dxfs count="22">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -5731,6 +5708,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -6318,10 +6297,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3695A651-C5D3-475E-B0F1-62D95BE20D6E}" name="Table1" displayName="Table1" ref="A4:S230" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20">
   <autoFilter ref="A4:S230" xr:uid="{3695A651-C5D3-475E-B0F1-62D95BE20D6E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:S230">
+    <sortCondition ref="A5:A230"/>
+  </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{79C2AF0A-5390-4E9C-B0D5-8710D43BFCA8}" name="SCG ID" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{3A2F9A8A-E9C4-43A8-8594-3E2B9A6D5730}" name="Secure Controls_x000a_Framework ID" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{04C83ECD-7936-4E48-94C3-11B7501981A9}" name="DISA STIG ID" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{0C22C20C-5D4F-427F-9F5F-9E803CF25C95}" name="PCI DSS 4.0.1 ID" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A908CAC9-5614-48A4-97C3-70CA9AC8DAFE}" name="Component_x000a_Name" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{E16C3EB7-CA62-41B0-81A3-43D994DC67B8}" name="Component Version" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{895DEAD4-BA35-4DEB-8BDB-962B3C89AD91}" name="Feature/Function" dataDxfId="13"/>
@@ -6337,7 +6320,6 @@
     <tableColumn id="16" xr3:uid="{10B1F9B6-A49A-438E-AC43-8517B9CD2D77}" name="Setting Location" dataDxfId="3"/>
     <tableColumn id="17" xr3:uid="{936E61C0-BF2D-4333-81AE-CF1CFBD1551E}" name="PowerCLI Command Assessment" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{5409B494-3A6E-419E-93EC-5CDA59C980DB}" name="PowerCLI Command Remediation" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{90552B80-4389-4C6C-B884-072C3112CDC4}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6662,61 +6644,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D633219-EF3A-40A9-A077-828D0951CCAB}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="161.109375" customWidth="1"/>
+    <col min="1" max="1" width="161.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:1" ht="294" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="294" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6724,46 +6707,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBA3DAB-E918-4651-919A-86FFFAAB5500}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="104.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="70.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="82.109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="47.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="144.6640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="143.109375" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="71.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="26.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="93.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="104.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="82.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="144.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="143.140625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1427</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -6774,66 +6757,66 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>40</v>
@@ -6877,22 +6860,22 @@
       <c r="R5" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="9" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>40</v>
@@ -6940,18 +6923,18 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1260</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>40</v>
@@ -6999,18 +6982,18 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>40</v>
@@ -7058,7 +7041,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
@@ -7069,7 +7052,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>40</v>
@@ -7117,18 +7100,18 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>40</v>
@@ -7176,18 +7159,18 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>40</v>
@@ -7235,18 +7218,18 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>40</v>
@@ -7294,18 +7277,18 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>40</v>
@@ -7353,7 +7336,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>90</v>
       </c>
@@ -7364,7 +7347,7 @@
         <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>40</v>
@@ -7412,7 +7395,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
@@ -7423,7 +7406,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>40</v>
@@ -7471,18 +7454,18 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="390" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>40</v>
@@ -7520,28 +7503,28 @@
       <c r="P16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="9" t="s">
         <v>123</v>
       </c>
       <c r="R16" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="13" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>40</v>
@@ -7579,28 +7562,28 @@
       <c r="P17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="9" t="s">
         <v>110</v>
       </c>
       <c r="R17" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
@@ -7648,18 +7631,18 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>40</v>
@@ -7707,18 +7690,18 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>40</v>
@@ -7766,18 +7749,18 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>40</v>
@@ -7825,18 +7808,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>40</v>
@@ -7884,18 +7867,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>40</v>
@@ -7943,18 +7926,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>1451</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1450</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>40</v>
@@ -8002,18 +7985,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>40</v>
@@ -8061,18 +8044,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>40</v>
@@ -8120,18 +8103,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>40</v>
@@ -8179,18 +8162,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>40</v>
@@ -8238,18 +8221,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>40</v>
@@ -8297,18 +8280,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="390" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>40</v>
@@ -8356,18 +8339,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>40</v>
@@ -8415,18 +8398,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>40</v>
@@ -8474,18 +8457,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>40</v>
@@ -8533,18 +8516,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>40</v>
@@ -8592,18 +8575,18 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="189" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>40</v>
@@ -8651,18 +8634,18 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>40</v>
@@ -8710,18 +8693,18 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>40</v>
@@ -8769,18 +8752,18 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>40</v>
@@ -8828,18 +8811,18 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>40</v>
@@ -8887,18 +8870,18 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>40</v>
@@ -8946,18 +8929,18 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>40</v>
@@ -8969,7 +8952,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>228</v>
@@ -9005,18 +8988,18 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="327.60000000000002" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>40</v>
@@ -9064,18 +9047,18 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>40</v>
@@ -9123,18 +9106,18 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>40</v>
@@ -9182,18 +9165,18 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>245</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>40</v>
@@ -9241,18 +9224,18 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>40</v>
@@ -9300,18 +9283,18 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>256</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>40</v>
@@ -9359,18 +9342,18 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>262</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>40</v>
@@ -9418,18 +9401,18 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>40</v>
@@ -9444,10 +9427,10 @@
         <v>268</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>31</v>
@@ -9477,18 +9460,18 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="312" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>40</v>
@@ -9536,18 +9519,18 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>277</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>40</v>
@@ -9595,18 +9578,18 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>1415</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>40</v>
@@ -9654,18 +9637,18 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>40</v>
@@ -9713,7 +9696,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>288</v>
       </c>
@@ -9724,7 +9707,7 @@
         <v>290</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>40</v>
@@ -9772,18 +9755,18 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>40</v>
@@ -9831,18 +9814,18 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>305</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>306</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>40</v>
@@ -9890,18 +9873,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>310</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>40</v>
@@ -9949,18 +9932,18 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>40</v>
@@ -10008,18 +9991,18 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>40</v>
@@ -10067,18 +10050,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>326</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>327</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>40</v>
@@ -10126,18 +10109,18 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>336</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>40</v>
@@ -10185,18 +10168,18 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>341</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>40</v>
@@ -10244,18 +10227,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="390" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>40</v>
@@ -10303,18 +10286,18 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>352</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>353</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>40</v>
@@ -10362,18 +10345,18 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>356</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>357</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>40</v>
@@ -10421,18 +10404,18 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>361</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>362</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>40</v>
@@ -10480,18 +10463,18 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>366</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>367</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>40</v>
@@ -10539,7 +10522,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>371</v>
       </c>
@@ -10550,7 +10533,7 @@
         <v>373</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>40</v>
@@ -10598,7 +10581,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>377</v>
       </c>
@@ -10609,7 +10592,7 @@
         <v>379</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>40</v>
@@ -10657,18 +10640,18 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>1425</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>40</v>
@@ -10716,18 +10699,18 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>381</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>40</v>
@@ -10775,18 +10758,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>387</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>388</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>40</v>
@@ -10834,18 +10817,18 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>390</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>391</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>40</v>
@@ -10893,18 +10876,18 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>396</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>397</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>40</v>
@@ -10952,18 +10935,18 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>401</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>402</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>40</v>
@@ -11011,7 +10994,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>405</v>
       </c>
@@ -11022,7 +11005,7 @@
         <v>406</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>40</v>
@@ -11070,18 +11053,18 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>410</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>40</v>
@@ -11129,18 +11112,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>416</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>417</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>40</v>
@@ -11188,18 +11171,18 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>424</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>40</v>
@@ -11247,18 +11230,18 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>429</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>430</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>40</v>
@@ -11306,18 +11289,18 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>433</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>434</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>40</v>
@@ -11365,18 +11348,18 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>437</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>438</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>40</v>
@@ -11424,18 +11407,18 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>442</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>443</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>444</v>
@@ -11483,18 +11466,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>446</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>40</v>
@@ -11542,18 +11525,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>456</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>40</v>
@@ -11601,18 +11584,18 @@
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>462</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>40</v>
@@ -11660,18 +11643,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>469</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>40</v>
@@ -11719,18 +11702,18 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>476</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>40</v>
@@ -11748,7 +11731,7 @@
         <v>478</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>479</v>
@@ -11778,18 +11761,18 @@
         <v>482</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>483</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>40</v>
@@ -11837,18 +11820,18 @@
         <v>490</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>491</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>40</v>
@@ -11863,7 +11846,7 @@
         <v>492</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>465</v>
@@ -11896,18 +11879,18 @@
         <v>495</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>496</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>40</v>
@@ -11955,18 +11938,18 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>502</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>40</v>
@@ -12014,18 +11997,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>511</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>40</v>
@@ -12073,18 +12056,18 @@
         <v>516</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>40</v>
@@ -12102,7 +12085,7 @@
         <v>519</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>31</v>
@@ -12132,18 +12115,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>523</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>40</v>
@@ -12191,18 +12174,18 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>528</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>40</v>
@@ -12250,18 +12233,18 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>534</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>40</v>
@@ -12309,7 +12292,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>540</v>
       </c>
@@ -12320,7 +12303,7 @@
         <v>32</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>541</v>
@@ -12368,18 +12351,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>544</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>545</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>444</v>
@@ -12427,18 +12410,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>547</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>444</v>
@@ -12486,18 +12469,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>550</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>444</v>
@@ -12545,18 +12528,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>555</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>556</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>444</v>
@@ -12604,18 +12587,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>563</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>444</v>
@@ -12663,18 +12646,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>565</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>566</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>444</v>
@@ -12722,18 +12705,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>568</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>444</v>
@@ -12781,18 +12764,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>573</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>574</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>444</v>
@@ -12840,18 +12823,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="312" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="126" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>575</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>576</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>577</v>
@@ -12899,7 +12882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>582</v>
       </c>
@@ -12910,7 +12893,7 @@
         <v>583</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>577</v>
@@ -12958,7 +12941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>589</v>
       </c>
@@ -12969,7 +12952,7 @@
         <v>590</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>577</v>
@@ -13017,18 +13000,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>593</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>594</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>577</v>
@@ -13076,18 +13059,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>595</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>596</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>577</v>
@@ -13135,7 +13118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>599</v>
       </c>
@@ -13146,7 +13129,7 @@
         <v>594</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>577</v>
@@ -13194,18 +13177,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>602</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>603</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>577</v>
@@ -13253,18 +13236,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>607</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>608</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>577</v>
@@ -13312,18 +13295,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="126" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>612</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>613</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>577</v>
@@ -13371,18 +13354,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>617</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>577</v>
@@ -13430,7 +13413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>620</v>
       </c>
@@ -13441,7 +13424,7 @@
         <v>621</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>577</v>
@@ -13489,7 +13472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>623</v>
       </c>
@@ -13500,7 +13483,7 @@
         <v>624</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>577</v>
@@ -13548,18 +13531,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="252" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>626</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>627</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>577</v>
@@ -13607,18 +13590,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>629</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>630</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>577</v>
@@ -13666,18 +13649,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>632</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>633</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>444</v>
@@ -13725,18 +13708,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="126" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>637</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>638</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>444</v>
@@ -13784,18 +13767,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>642</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>643</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>444</v>
@@ -13843,18 +13826,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>646</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>647</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>444</v>
@@ -13902,18 +13885,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>650</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>651</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>444</v>
@@ -13961,18 +13944,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>656</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>657</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>444</v>
@@ -14020,18 +14003,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>660</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>661</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>444</v>
@@ -14043,7 +14026,7 @@
         <v>27</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>653</v>
@@ -14079,18 +14062,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>663</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>664</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>444</v>
@@ -14138,18 +14121,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>666</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>444</v>
@@ -14197,18 +14180,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>670</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>444</v>
@@ -14256,18 +14239,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>671</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>672</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>444</v>
@@ -14315,18 +14298,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>673</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>674</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>444</v>
@@ -14374,7 +14357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>678</v>
       </c>
@@ -14385,7 +14368,7 @@
         <v>679</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>680</v>
@@ -14433,7 +14416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>683</v>
       </c>
@@ -14444,7 +14427,7 @@
         <v>685</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>686</v>
@@ -14492,18 +14475,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>690</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>691</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>686</v>
@@ -14551,18 +14534,18 @@
         <v>697</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>698</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>699</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>686</v>
@@ -14610,18 +14593,18 @@
         <v>704</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>705</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>699</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>686</v>
@@ -14669,7 +14652,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>713</v>
       </c>
@@ -14680,7 +14663,7 @@
         <v>715</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>686</v>
@@ -14728,7 +14711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>718</v>
       </c>
@@ -14739,7 +14722,7 @@
         <v>719</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>686</v>
@@ -14787,7 +14770,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>724</v>
       </c>
@@ -14798,7 +14781,7 @@
         <v>726</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>686</v>
@@ -14846,18 +14829,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>730</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>731</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>686</v>
@@ -14905,18 +14888,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>739</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>740</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>686</v>
@@ -14964,18 +14947,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>744</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>745</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>686</v>
@@ -15023,18 +15006,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>749</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>686</v>
@@ -15082,18 +15065,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>752</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>686</v>
@@ -15141,7 +15124,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>760</v>
       </c>
@@ -15152,7 +15135,7 @@
         <v>762</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>686</v>
@@ -15200,7 +15183,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>768</v>
       </c>
@@ -15211,7 +15194,7 @@
         <v>769</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>686</v>
@@ -15259,18 +15242,18 @@
         <v>774</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>775</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>776</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>686</v>
@@ -15318,18 +15301,18 @@
         <v>780</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>781</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>686</v>
@@ -15377,18 +15360,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>786</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>787</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>686</v>
@@ -15436,18 +15419,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>790</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>791</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>686</v>
@@ -15495,18 +15478,18 @@
         <v>796</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>797</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>798</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>686</v>
@@ -15554,7 +15537,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>803</v>
       </c>
@@ -15565,7 +15548,7 @@
         <v>32</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>686</v>
@@ -15613,7 +15596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>805</v>
       </c>
@@ -15624,7 +15607,7 @@
         <v>806</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>686</v>
@@ -15672,18 +15655,18 @@
         <v>810</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>811</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>812</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>686</v>
@@ -15731,18 +15714,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="126" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>816</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>817</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>686</v>
@@ -15790,7 +15773,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>825</v>
       </c>
@@ -15801,7 +15784,7 @@
         <v>827</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>686</v>
@@ -15849,18 +15832,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>830</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>831</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>686</v>
@@ -15908,7 +15891,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>836</v>
       </c>
@@ -15919,7 +15902,7 @@
         <v>837</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>686</v>
@@ -15967,7 +15950,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>841</v>
       </c>
@@ -15978,7 +15961,7 @@
         <v>842</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>686</v>
@@ -16026,7 +16009,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>846</v>
       </c>
@@ -16037,7 +16020,7 @@
         <v>847</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>686</v>
@@ -16085,7 +16068,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>853</v>
       </c>
@@ -16096,7 +16079,7 @@
         <v>854</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>686</v>
@@ -16144,7 +16127,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>861</v>
       </c>
@@ -16155,7 +16138,7 @@
         <v>862</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>686</v>
@@ -16203,7 +16186,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>868</v>
       </c>
@@ -16214,7 +16197,7 @@
         <v>869</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>686</v>
@@ -16262,7 +16245,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>875</v>
       </c>
@@ -16273,7 +16256,7 @@
         <v>876</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>686</v>
@@ -16321,7 +16304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>880</v>
       </c>
@@ -16332,7 +16315,7 @@
         <v>881</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>686</v>
@@ -16380,18 +16363,18 @@
         <v>885</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>886</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>887</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>686</v>
@@ -16439,18 +16422,18 @@
         <v>894</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>895</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>686</v>
@@ -16498,18 +16481,18 @@
         <v>900</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>901</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>686</v>
@@ -16557,18 +16540,18 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>907</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>686</v>
@@ -16616,18 +16599,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>910</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>686</v>
@@ -16675,18 +16658,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>913</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>686</v>
@@ -16734,18 +16717,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>916</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>917</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>686</v>
@@ -16793,18 +16776,18 @@
         <v>723</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>686</v>
@@ -16852,7 +16835,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>923</v>
       </c>
@@ -16863,7 +16846,7 @@
         <v>924</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>686</v>
@@ -16911,7 +16894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="189" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>926</v>
       </c>
@@ -16922,7 +16905,7 @@
         <v>928</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>686</v>
@@ -16970,7 +16953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>932</v>
       </c>
@@ -16981,7 +16964,7 @@
         <v>32</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>686</v>
@@ -17029,7 +17012,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>937</v>
       </c>
@@ -17040,7 +17023,7 @@
         <v>32</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>686</v>
@@ -17088,18 +17071,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>941</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>942</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>686</v>
@@ -17147,18 +17130,18 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="296.39999999999998" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>946</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>947</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>686</v>
@@ -17206,7 +17189,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>952</v>
       </c>
@@ -17217,7 +17200,7 @@
         <v>32</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>686</v>
@@ -17265,7 +17248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>957</v>
       </c>
@@ -17276,7 +17259,7 @@
         <v>32</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>686</v>
@@ -17324,7 +17307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>963</v>
       </c>
@@ -17335,7 +17318,7 @@
         <v>32</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>686</v>
@@ -17383,7 +17366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>966</v>
       </c>
@@ -17394,7 +17377,7 @@
         <v>967</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>686</v>
@@ -17442,7 +17425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>971</v>
       </c>
@@ -17453,7 +17436,7 @@
         <v>973</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>686</v>
@@ -17501,7 +17484,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="189" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>979</v>
       </c>
@@ -17512,7 +17495,7 @@
         <v>980</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>25</v>
@@ -17560,18 +17543,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>983</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>25</v>
@@ -17619,18 +17602,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>985</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>986</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>25</v>
@@ -17678,7 +17661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>990</v>
       </c>
@@ -17689,7 +17672,7 @@
         <v>32</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>25</v>
@@ -17737,7 +17720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>994</v>
       </c>
@@ -17748,7 +17731,7 @@
         <v>996</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>25</v>
@@ -17796,7 +17779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>999</v>
       </c>
@@ -17807,7 +17790,7 @@
         <v>32</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>25</v>
@@ -17855,18 +17838,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>25</v>
@@ -17914,7 +17897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>1003</v>
       </c>
@@ -17925,7 +17908,7 @@
         <v>1004</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>40</v>
@@ -17973,7 +17956,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>1013</v>
       </c>
@@ -17984,7 +17967,7 @@
         <v>1014</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>40</v>
@@ -18032,7 +18015,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>1020</v>
       </c>
@@ -18043,7 +18026,7 @@
         <v>1022</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>40</v>
@@ -18091,7 +18074,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1028</v>
       </c>
@@ -18102,7 +18085,7 @@
         <v>1029</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>40</v>
@@ -18150,7 +18133,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>1035</v>
       </c>
@@ -18161,7 +18144,7 @@
         <v>1036</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>40</v>
@@ -18209,7 +18192,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>1043</v>
       </c>
@@ -18220,7 +18203,7 @@
         <v>1044</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>40</v>
@@ -18268,7 +18251,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>1052</v>
       </c>
@@ -18279,7 +18262,7 @@
         <v>32</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>40</v>
@@ -18327,7 +18310,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1061</v>
       </c>
@@ -18338,7 +18321,7 @@
         <v>1063</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>40</v>
@@ -18386,7 +18369,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1072</v>
       </c>
@@ -18397,7 +18380,7 @@
         <v>1073</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>40</v>
@@ -18445,7 +18428,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>1079</v>
       </c>
@@ -18456,7 +18439,7 @@
         <v>1080</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>40</v>
@@ -18504,7 +18487,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>1086</v>
       </c>
@@ -18515,7 +18498,7 @@
         <v>1087</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>40</v>
@@ -18563,7 +18546,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>1094</v>
       </c>
@@ -18574,7 +18557,7 @@
         <v>1095</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>40</v>
@@ -18622,7 +18605,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>1102</v>
       </c>
@@ -18633,7 +18616,7 @@
         <v>1103</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>40</v>
@@ -18681,7 +18664,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>1109</v>
       </c>
@@ -18692,7 +18675,7 @@
         <v>1111</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>40</v>
@@ -18740,7 +18723,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>1118</v>
       </c>
@@ -18751,7 +18734,7 @@
         <v>1119</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>40</v>
@@ -18799,7 +18782,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>1126</v>
       </c>
@@ -18810,7 +18793,7 @@
         <v>1127</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>40</v>
@@ -18858,7 +18841,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>1133</v>
       </c>
@@ -18869,7 +18852,7 @@
         <v>1134</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>40</v>
@@ -18917,7 +18900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>1257</v>
       </c>
@@ -18928,7 +18911,7 @@
         <v>1258</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>40</v>
@@ -18966,17 +18949,17 @@
       <c r="P210" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q210" s="10" t="s">
+      <c r="Q210" s="9" t="s">
         <v>1069</v>
       </c>
       <c r="R210" s="10" t="s">
         <v>1256</v>
       </c>
-      <c r="S210" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="S210" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>1140</v>
       </c>
@@ -18987,7 +18970,7 @@
         <v>1141</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>40</v>
@@ -19035,7 +19018,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="156" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>1148</v>
       </c>
@@ -19046,7 +19029,7 @@
         <v>32</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>40</v>
@@ -19094,7 +19077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>1153</v>
       </c>
@@ -19105,7 +19088,7 @@
         <v>1155</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>40</v>
@@ -19153,7 +19136,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>1161</v>
       </c>
@@ -19164,7 +19147,7 @@
         <v>32</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>40</v>
@@ -19212,7 +19195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>1167</v>
       </c>
@@ -19223,7 +19206,7 @@
         <v>1168</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>40</v>
@@ -19271,7 +19254,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="234" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>1175</v>
       </c>
@@ -19282,7 +19265,7 @@
         <v>1177</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>40</v>
@@ -19330,7 +19313,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>1183</v>
       </c>
@@ -19341,7 +19324,7 @@
         <v>32</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>1185</v>
@@ -19389,7 +19372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>1186</v>
       </c>
@@ -19400,7 +19383,7 @@
         <v>32</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>1185</v>
@@ -19448,7 +19431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>1190</v>
       </c>
@@ -19459,7 +19442,7 @@
         <v>1192</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>1185</v>
@@ -19507,7 +19490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>1196</v>
       </c>
@@ -19518,7 +19501,7 @@
         <v>1197</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>1185</v>
@@ -19566,7 +19549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>1201</v>
       </c>
@@ -19577,7 +19560,7 @@
         <v>1197</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>1185</v>
@@ -19625,7 +19608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>1202</v>
       </c>
@@ -19636,7 +19619,7 @@
         <v>32</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>1185</v>
@@ -19684,7 +19667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>1210</v>
       </c>
@@ -19695,7 +19678,7 @@
         <v>32</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>1185</v>
@@ -19743,7 +19726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>1214</v>
       </c>
@@ -19754,7 +19737,7 @@
         <v>32</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>1185</v>
@@ -19802,7 +19785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>1218</v>
       </c>
@@ -19813,7 +19796,7 @@
         <v>1219</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>1185</v>
@@ -19861,7 +19844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="78" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>1224</v>
       </c>
@@ -19872,7 +19855,7 @@
         <v>32</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>1185</v>
@@ -19920,7 +19903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>1228</v>
       </c>
@@ -19931,7 +19914,7 @@
         <v>32</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>1185</v>
@@ -19979,7 +19962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>1232</v>
       </c>
@@ -19990,7 +19973,7 @@
         <v>32</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>1185</v>
@@ -20038,7 +20021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>1235</v>
       </c>
@@ -20049,7 +20032,7 @@
         <v>32</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>1185</v>
@@ -20097,7 +20080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>1238</v>
       </c>
@@ -20108,7 +20091,7 @@
         <v>32</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>1185</v>
@@ -20152,18 +20135,17 @@
       <c r="R230" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S230" s="16" t="s">
+      <c r="S230" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R230">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S230">
     <sortCondition ref="A4:A230"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/security-configuration-hardening-guide/cloud-foundation/9.0/vmware-cloud-foundation-security-configuration-guide-90-controls.xlsx
+++ b/security-configuration-hardening-guide/cloud-foundation/9.0/vmware-cloud-foundation-security-configuration-guide-90-controls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vmware\Projects\Security Configuration Guide\Security Configuration Guide 9\900-20250822-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vmware\Projects\Security Configuration Guide\Security Configuration Guide 9\900-20250904-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C1962-329B-4107-8AC0-77A961E694C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2E2C1-4990-4B49-A920-E8C0882073A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{378E67A8-D089-4FA6-9DFE-D37B9D846B86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="25416" xr2:uid="{378E67A8-D089-4FA6-9DFE-D37B9D846B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -5068,9 +5068,6 @@
 Other parameters are set securely, but can be changed, so must be audited.</t>
   </si>
   <si>
-    <t>Version 900-20250823-01</t>
-  </si>
-  <si>
     <t>PCI DSS 4.0.1 ID</t>
   </si>
   <si>
@@ -5513,6 +5510,9 @@
   <si>
     <t>2.2.7
 4.2.1</t>
+  </si>
+  <si>
+    <t>Version 900-20250904-01</t>
   </si>
 </sst>
 </file>
@@ -5677,41 +5677,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -6149,6 +6114,41 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -6304,22 +6304,22 @@
     <tableColumn id="1" xr3:uid="{79C2AF0A-5390-4E9C-B0D5-8710D43BFCA8}" name="SCG ID" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{3A2F9A8A-E9C4-43A8-8594-3E2B9A6D5730}" name="Secure Controls_x000a_Framework ID" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{04C83ECD-7936-4E48-94C3-11B7501981A9}" name="DISA STIG ID" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{0C22C20C-5D4F-427F-9F5F-9E803CF25C95}" name="PCI DSS 4.0.1 ID" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{A908CAC9-5614-48A4-97C3-70CA9AC8DAFE}" name="Component_x000a_Name" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E16C3EB7-CA62-41B0-81A3-43D994DC67B8}" name="Component Version" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{895DEAD4-BA35-4DEB-8BDB-962B3C89AD91}" name="Feature/Function" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{71DF3195-B3BB-4383-997D-CEDC42E35F5E}" name="Description/Title" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{426E1751-524C-44E0-BDFE-1D437FA86969}" name="Discussion" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{FE8DA64B-D7B6-4390-92F8-5979922A1CF8}" name="Potential Functional Impact if Default Value is Changed" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B910FBF8-6292-4A9B-B845-87CB8C60FA3E}" name="Implementation_x000a_Priority" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{9BFF0C05-282D-4957-8499-73407BD57496}" name="Configuration Parameter" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{7AAC1EEF-6538-49BC-B64E-854CF38BD12C}" name="Installation Default Value" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{CD721173-154F-4E21-BC3D-DB2AC5F8A19C}" name="Baseline Suggested Value" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{AA97B976-1568-486E-88B7-7A4EA28C60EB}" name="Is the Default?" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{02A4FA27-33A4-43FE-84CE-5CD5C84AAA7A}" name="Action Needed" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{10B1F9B6-A49A-438E-AC43-8517B9CD2D77}" name="Setting Location" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{936E61C0-BF2D-4333-81AE-CF1CFBD1551E}" name="PowerCLI Command Assessment" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{5409B494-3A6E-419E-93EC-5CDA59C980DB}" name="PowerCLI Command Remediation" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{0C22C20C-5D4F-427F-9F5F-9E803CF25C95}" name="PCI DSS 4.0.1 ID" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A908CAC9-5614-48A4-97C3-70CA9AC8DAFE}" name="Component_x000a_Name" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E16C3EB7-CA62-41B0-81A3-43D994DC67B8}" name="Component Version" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{895DEAD4-BA35-4DEB-8BDB-962B3C89AD91}" name="Feature/Function" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{71DF3195-B3BB-4383-997D-CEDC42E35F5E}" name="Description/Title" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{426E1751-524C-44E0-BDFE-1D437FA86969}" name="Discussion" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{FE8DA64B-D7B6-4390-92F8-5979922A1CF8}" name="Potential Functional Impact if Default Value is Changed" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B910FBF8-6292-4A9B-B845-87CB8C60FA3E}" name="Implementation_x000a_Priority" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{9BFF0C05-282D-4957-8499-73407BD57496}" name="Configuration Parameter" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{7AAC1EEF-6538-49BC-B64E-854CF38BD12C}" name="Installation Default Value" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{CD721173-154F-4E21-BC3D-DB2AC5F8A19C}" name="Baseline Suggested Value" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{AA97B976-1568-486E-88B7-7A4EA28C60EB}" name="Is the Default?" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{02A4FA27-33A4-43FE-84CE-5CD5C84AAA7A}" name="Action Needed" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{10B1F9B6-A49A-438E-AC43-8517B9CD2D77}" name="Setting Location" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{936E61C0-BF2D-4333-81AE-CF1CFBD1551E}" name="PowerCLI Command Assessment" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{5409B494-3A6E-419E-93EC-5CDA59C980DB}" name="PowerCLI Command Remediation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6644,58 +6644,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D633219-EF3A-40A9-A077-828D0951CCAB}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="161.140625" customWidth="1"/>
+    <col min="1" max="1" width="161.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:1" ht="294" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="294" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
@@ -6707,46 +6707,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBA3DAB-E918-4651-919A-86FFFAAB5500}">
   <dimension ref="A1:S230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="26.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="26.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="93.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="104.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="70.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="82.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="144.7109375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="143.140625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="93.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="104.88671875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="70.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="82.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.44140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.109375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="144.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="143.109375" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>1427</v>
+        <v>1547</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -6757,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
@@ -6805,18 +6803,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>40</v>
@@ -6864,18 +6862,18 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>40</v>
@@ -6923,18 +6921,18 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>1260</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>1431</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1432</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>40</v>
@@ -6982,18 +6980,18 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>40</v>
@@ -7041,7 +7039,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>40</v>
@@ -7100,18 +7098,18 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>40</v>
@@ -7159,18 +7157,18 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>40</v>
@@ -7218,18 +7216,18 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>40</v>
@@ -7277,18 +7275,18 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>40</v>
@@ -7336,7 +7334,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>90</v>
       </c>
@@ -7347,7 +7345,7 @@
         <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>40</v>
@@ -7395,7 +7393,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
@@ -7406,7 +7404,7 @@
         <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>40</v>
@@ -7454,18 +7452,18 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>40</v>
@@ -7513,18 +7511,18 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>40</v>
@@ -7572,18 +7570,18 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>40</v>
@@ -7631,18 +7629,18 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>40</v>
@@ -7690,18 +7688,18 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>40</v>
@@ -7749,18 +7747,18 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>40</v>
@@ -7808,18 +7806,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>1450</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1451</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>40</v>
@@ -7867,18 +7865,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>1450</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1451</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>40</v>
@@ -7926,18 +7924,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>40</v>
@@ -7985,18 +7983,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1454</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>40</v>
@@ -8044,18 +8042,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1455</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1456</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>40</v>
@@ -8103,18 +8101,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>40</v>
@@ -8162,18 +8160,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>40</v>
@@ -8221,18 +8219,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>1460</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1461</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>40</v>
@@ -8280,18 +8278,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>40</v>
@@ -8339,18 +8337,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>40</v>
@@ -8398,18 +8396,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>40</v>
@@ -8457,18 +8455,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>40</v>
@@ -8516,18 +8514,18 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>40</v>
@@ -8575,18 +8573,18 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="189" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>187</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>40</v>
@@ -8634,18 +8632,18 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>40</v>
@@ -8693,18 +8691,18 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>202</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>40</v>
@@ -8752,18 +8750,18 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>208</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>40</v>
@@ -8811,18 +8809,18 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>40</v>
@@ -8870,18 +8868,18 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>221</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>40</v>
@@ -8929,18 +8927,18 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>40</v>
@@ -8952,7 +8950,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>228</v>
@@ -8988,18 +8986,18 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>40</v>
@@ -9047,18 +9045,18 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>238</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>40</v>
@@ -9106,18 +9104,18 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>40</v>
@@ -9165,18 +9163,18 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>245</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>1482</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1483</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>40</v>
@@ -9224,18 +9222,18 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>251</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>40</v>
@@ -9283,18 +9281,18 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>256</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>40</v>
@@ -9342,18 +9340,18 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>262</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>40</v>
@@ -9401,18 +9399,18 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>40</v>
@@ -9427,13 +9425,13 @@
         <v>268</v>
       </c>
       <c r="I49" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>1486</v>
-      </c>
       <c r="K49" s="9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>269</v>
@@ -9445,10 +9443,10 @@
         <v>270</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>46</v>
@@ -9460,18 +9458,18 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="234" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>40</v>
@@ -9519,18 +9517,18 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>277</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>40</v>
@@ -9578,18 +9576,18 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>1415</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>40</v>
@@ -9637,18 +9635,18 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>40</v>
@@ -9696,7 +9694,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>288</v>
       </c>
@@ -9707,7 +9705,7 @@
         <v>290</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>40</v>
@@ -9755,18 +9753,18 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>40</v>
@@ -9814,18 +9812,18 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>305</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>306</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>40</v>
@@ -9873,18 +9871,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>310</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>40</v>
@@ -9932,18 +9930,18 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>316</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>40</v>
@@ -9991,18 +9989,18 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>40</v>
@@ -10050,18 +10048,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>326</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>327</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>40</v>
@@ -10109,18 +10107,18 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>336</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>40</v>
@@ -10168,18 +10166,18 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>341</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>40</v>
@@ -10227,18 +10225,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>40</v>
@@ -10286,18 +10284,18 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>352</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>353</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>40</v>
@@ -10345,18 +10343,18 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>356</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>357</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>40</v>
@@ -10404,18 +10402,18 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>361</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>362</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>40</v>
@@ -10463,18 +10461,18 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>366</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>367</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>40</v>
@@ -10522,7 +10520,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>371</v>
       </c>
@@ -10533,7 +10531,7 @@
         <v>373</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>40</v>
@@ -10581,7 +10579,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>377</v>
       </c>
@@ -10592,7 +10590,7 @@
         <v>379</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>40</v>
@@ -10640,18 +10638,18 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>1425</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>40</v>
@@ -10699,18 +10697,18 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>381</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>40</v>
@@ -10758,18 +10756,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>387</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>388</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>40</v>
@@ -10817,18 +10815,18 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>390</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>391</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>40</v>
@@ -10876,18 +10874,18 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>396</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>397</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>40</v>
@@ -10935,18 +10933,18 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>401</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>402</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>40</v>
@@ -10994,7 +10992,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>405</v>
       </c>
@@ -11005,7 +11003,7 @@
         <v>406</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>40</v>
@@ -11053,18 +11051,18 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>410</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>40</v>
@@ -11112,18 +11110,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>416</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>417</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>40</v>
@@ -11171,18 +11169,18 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>424</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>40</v>
@@ -11230,18 +11228,18 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>429</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>430</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>40</v>
@@ -11289,18 +11287,18 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>433</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>434</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>40</v>
@@ -11348,18 +11346,18 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>437</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>438</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>40</v>
@@ -11407,18 +11405,18 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>442</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>443</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>444</v>
@@ -11466,18 +11464,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>446</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>40</v>
@@ -11525,18 +11523,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>456</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>40</v>
@@ -11584,18 +11582,18 @@
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>462</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>40</v>
@@ -11643,18 +11641,18 @@
         <v>468</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>469</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>40</v>
@@ -11702,18 +11700,18 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>476</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>40</v>
@@ -11731,7 +11729,7 @@
         <v>478</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>479</v>
@@ -11761,18 +11759,18 @@
         <v>482</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>483</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>40</v>
@@ -11820,18 +11818,18 @@
         <v>490</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>491</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>40</v>
@@ -11846,7 +11844,7 @@
         <v>492</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>465</v>
@@ -11879,18 +11877,18 @@
         <v>495</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>496</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>40</v>
@@ -11938,18 +11936,18 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>502</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>40</v>
@@ -11997,18 +11995,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>511</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>40</v>
@@ -12056,18 +12054,18 @@
         <v>516</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>40</v>
@@ -12085,7 +12083,7 @@
         <v>519</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>31</v>
@@ -12115,18 +12113,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>523</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>40</v>
@@ -12174,18 +12172,18 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>528</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>40</v>
@@ -12233,18 +12231,18 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>534</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>40</v>
@@ -12292,7 +12290,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>540</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>32</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>541</v>
@@ -12351,18 +12349,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>544</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>545</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>444</v>
@@ -12410,18 +12408,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>547</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>444</v>
@@ -12469,18 +12467,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>550</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>444</v>
@@ -12528,18 +12526,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>555</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>556</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>444</v>
@@ -12587,18 +12585,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>563</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>444</v>
@@ -12646,18 +12644,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>565</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>566</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>444</v>
@@ -12705,18 +12703,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>568</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>1519</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>1520</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>444</v>
@@ -12764,18 +12762,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>573</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>574</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>444</v>
@@ -12823,18 +12821,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="126" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>575</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>576</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>577</v>
@@ -12882,7 +12880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>582</v>
       </c>
@@ -12893,7 +12891,7 @@
         <v>583</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>577</v>
@@ -12941,7 +12939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>589</v>
       </c>
@@ -12952,7 +12950,7 @@
         <v>590</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>577</v>
@@ -13000,18 +12998,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>593</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>594</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>577</v>
@@ -13059,18 +13057,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>595</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>596</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>577</v>
@@ -13118,7 +13116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>599</v>
       </c>
@@ -13129,7 +13127,7 @@
         <v>594</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>577</v>
@@ -13177,18 +13175,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>602</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>603</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>577</v>
@@ -13236,18 +13234,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>607</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>608</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>577</v>
@@ -13295,18 +13293,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="126" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>612</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>613</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>577</v>
@@ -13354,18 +13352,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>617</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>577</v>
@@ -13413,7 +13411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>620</v>
       </c>
@@ -13424,7 +13422,7 @@
         <v>621</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>577</v>
@@ -13472,7 +13470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>623</v>
       </c>
@@ -13483,7 +13481,7 @@
         <v>624</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>577</v>
@@ -13531,18 +13529,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="252" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>626</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>627</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>577</v>
@@ -13590,18 +13588,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>629</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>630</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>577</v>
@@ -13649,18 +13647,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>632</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>633</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>444</v>
@@ -13708,18 +13706,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="126" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>637</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>638</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>444</v>
@@ -13767,18 +13765,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>642</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>643</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>444</v>
@@ -13826,18 +13824,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>646</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>647</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>444</v>
@@ -13885,18 +13883,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>650</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>651</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>444</v>
@@ -13944,18 +13942,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>656</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>657</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>444</v>
@@ -14003,18 +14001,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>660</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>661</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>444</v>
@@ -14026,7 +14024,7 @@
         <v>27</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>653</v>
@@ -14062,18 +14060,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>663</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>664</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>444</v>
@@ -14121,18 +14119,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>666</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>444</v>
@@ -14180,18 +14178,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>670</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>444</v>
@@ -14239,18 +14237,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>671</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>672</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>444</v>
@@ -14298,18 +14296,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>673</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>674</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>444</v>
@@ -14357,7 +14355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>678</v>
       </c>
@@ -14368,7 +14366,7 @@
         <v>679</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>680</v>
@@ -14416,7 +14414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>683</v>
       </c>
@@ -14427,7 +14425,7 @@
         <v>685</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>686</v>
@@ -14475,18 +14473,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>690</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>691</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>686</v>
@@ -14534,18 +14532,18 @@
         <v>697</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>698</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>699</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>686</v>
@@ -14593,18 +14591,18 @@
         <v>704</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>705</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>699</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>686</v>
@@ -14652,7 +14650,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>713</v>
       </c>
@@ -14663,7 +14661,7 @@
         <v>715</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>686</v>
@@ -14711,7 +14709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>718</v>
       </c>
@@ -14722,7 +14720,7 @@
         <v>719</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>686</v>
@@ -14770,7 +14768,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>724</v>
       </c>
@@ -14781,7 +14779,7 @@
         <v>726</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>686</v>
@@ -14829,18 +14827,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>730</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>731</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>686</v>
@@ -14888,18 +14886,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>739</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>740</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>686</v>
@@ -14947,18 +14945,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>744</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>745</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>686</v>
@@ -15006,18 +15004,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>749</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>686</v>
@@ -15065,18 +15063,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>752</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>1445</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>1446</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>686</v>
@@ -15124,7 +15122,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>760</v>
       </c>
@@ -15135,7 +15133,7 @@
         <v>762</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>686</v>
@@ -15183,7 +15181,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>768</v>
       </c>
@@ -15194,7 +15192,7 @@
         <v>769</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>686</v>
@@ -15242,18 +15240,18 @@
         <v>774</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>775</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>776</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>686</v>
@@ -15301,18 +15299,18 @@
         <v>780</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>781</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>686</v>
@@ -15360,18 +15358,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>786</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>787</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>686</v>
@@ -15419,18 +15417,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>790</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>791</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>686</v>
@@ -15478,18 +15476,18 @@
         <v>796</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>797</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>798</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>686</v>
@@ -15537,7 +15535,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="234" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>803</v>
       </c>
@@ -15548,7 +15546,7 @@
         <v>32</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>686</v>
@@ -15596,7 +15594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>805</v>
       </c>
@@ -15607,7 +15605,7 @@
         <v>806</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>686</v>
@@ -15655,18 +15653,18 @@
         <v>810</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>811</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>812</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>686</v>
@@ -15714,18 +15712,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="126" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>816</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>817</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>686</v>
@@ -15773,7 +15771,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>825</v>
       </c>
@@ -15784,7 +15782,7 @@
         <v>827</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>686</v>
@@ -15832,18 +15830,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>830</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>831</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>686</v>
@@ -15891,7 +15889,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>836</v>
       </c>
@@ -15902,7 +15900,7 @@
         <v>837</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>686</v>
@@ -15950,7 +15948,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>841</v>
       </c>
@@ -15961,7 +15959,7 @@
         <v>842</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>686</v>
@@ -16009,7 +16007,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>846</v>
       </c>
@@ -16020,7 +16018,7 @@
         <v>847</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>686</v>
@@ -16068,7 +16066,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>853</v>
       </c>
@@ -16079,7 +16077,7 @@
         <v>854</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>686</v>
@@ -16127,7 +16125,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>861</v>
       </c>
@@ -16138,7 +16136,7 @@
         <v>862</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>686</v>
@@ -16186,7 +16184,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="234" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>868</v>
       </c>
@@ -16197,7 +16195,7 @@
         <v>869</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>686</v>
@@ -16245,7 +16243,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>875</v>
       </c>
@@ -16256,7 +16254,7 @@
         <v>876</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>686</v>
@@ -16304,7 +16302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>880</v>
       </c>
@@ -16315,7 +16313,7 @@
         <v>881</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>686</v>
@@ -16363,18 +16361,18 @@
         <v>885</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>886</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>887</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>686</v>
@@ -16422,18 +16420,18 @@
         <v>894</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>895</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>686</v>
@@ -16481,18 +16479,18 @@
         <v>900</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>901</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>686</v>
@@ -16540,18 +16538,18 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>907</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>686</v>
@@ -16599,18 +16597,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>910</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>686</v>
@@ -16658,18 +16656,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>913</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>686</v>
@@ -16717,18 +16715,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>916</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>917</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>686</v>
@@ -16776,18 +16774,18 @@
         <v>723</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>686</v>
@@ -16835,7 +16833,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>923</v>
       </c>
@@ -16846,7 +16844,7 @@
         <v>924</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>686</v>
@@ -16894,7 +16892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="189" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>926</v>
       </c>
@@ -16905,7 +16903,7 @@
         <v>928</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>686</v>
@@ -16953,7 +16951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>932</v>
       </c>
@@ -16964,7 +16962,7 @@
         <v>32</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>686</v>
@@ -17012,7 +17010,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>937</v>
       </c>
@@ -17023,7 +17021,7 @@
         <v>32</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>686</v>
@@ -17071,18 +17069,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>941</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>942</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>686</v>
@@ -17130,18 +17128,18 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>946</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>947</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>686</v>
@@ -17189,7 +17187,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>952</v>
       </c>
@@ -17200,7 +17198,7 @@
         <v>32</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>686</v>
@@ -17248,7 +17246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>957</v>
       </c>
@@ -17259,7 +17257,7 @@
         <v>32</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>686</v>
@@ -17307,7 +17305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>963</v>
       </c>
@@ -17318,7 +17316,7 @@
         <v>32</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>686</v>
@@ -17366,7 +17364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>966</v>
       </c>
@@ -17377,7 +17375,7 @@
         <v>967</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>686</v>
@@ -17425,7 +17423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>971</v>
       </c>
@@ -17436,7 +17434,7 @@
         <v>973</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>686</v>
@@ -17484,7 +17482,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="189" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>979</v>
       </c>
@@ -17495,7 +17493,7 @@
         <v>980</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>25</v>
@@ -17543,18 +17541,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>982</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>983</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>25</v>
@@ -17602,18 +17600,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>985</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>986</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>25</v>
@@ -17661,7 +17659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>990</v>
       </c>
@@ -17672,7 +17670,7 @@
         <v>32</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>25</v>
@@ -17720,7 +17718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="234" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>994</v>
       </c>
@@ -17731,7 +17729,7 @@
         <v>996</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>25</v>
@@ -17779,7 +17777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>999</v>
       </c>
@@ -17790,7 +17788,7 @@
         <v>32</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>25</v>
@@ -17838,18 +17836,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>25</v>
@@ -17897,7 +17895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>1003</v>
       </c>
@@ -17908,7 +17906,7 @@
         <v>1004</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>40</v>
@@ -17956,7 +17954,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>1013</v>
       </c>
@@ -17967,7 +17965,7 @@
         <v>1014</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>40</v>
@@ -18015,7 +18013,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>1020</v>
       </c>
@@ -18026,7 +18024,7 @@
         <v>1022</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>40</v>
@@ -18074,7 +18072,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>1028</v>
       </c>
@@ -18085,7 +18083,7 @@
         <v>1029</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>40</v>
@@ -18133,7 +18131,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>1035</v>
       </c>
@@ -18144,7 +18142,7 @@
         <v>1036</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>40</v>
@@ -18192,7 +18190,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>1043</v>
       </c>
@@ -18203,7 +18201,7 @@
         <v>1044</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>40</v>
@@ -18251,7 +18249,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>1052</v>
       </c>
@@ -18262,7 +18260,7 @@
         <v>32</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>40</v>
@@ -18310,7 +18308,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1061</v>
       </c>
@@ -18321,7 +18319,7 @@
         <v>1063</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>40</v>
@@ -18369,7 +18367,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>1072</v>
       </c>
@@ -18380,7 +18378,7 @@
         <v>1073</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>40</v>
@@ -18428,7 +18426,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>1079</v>
       </c>
@@ -18439,7 +18437,7 @@
         <v>1080</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>40</v>
@@ -18487,7 +18485,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>1086</v>
       </c>
@@ -18498,7 +18496,7 @@
         <v>1087</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>40</v>
@@ -18546,7 +18544,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>1094</v>
       </c>
@@ -18557,7 +18555,7 @@
         <v>1095</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>40</v>
@@ -18605,7 +18603,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="234" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>1102</v>
       </c>
@@ -18616,7 +18614,7 @@
         <v>1103</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>40</v>
@@ -18664,7 +18662,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>1109</v>
       </c>
@@ -18675,7 +18673,7 @@
         <v>1111</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>40</v>
@@ -18723,7 +18721,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>1118</v>
       </c>
@@ -18734,7 +18732,7 @@
         <v>1119</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>40</v>
@@ -18782,7 +18780,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>1126</v>
       </c>
@@ -18793,7 +18791,7 @@
         <v>1127</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>40</v>
@@ -18841,7 +18839,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>1133</v>
       </c>
@@ -18852,7 +18850,7 @@
         <v>1134</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>40</v>
@@ -18900,7 +18898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>1257</v>
       </c>
@@ -18911,7 +18909,7 @@
         <v>1258</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>40</v>
@@ -18959,7 +18957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>1140</v>
       </c>
@@ -18970,7 +18968,7 @@
         <v>1141</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>40</v>
@@ -19018,7 +19016,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="156" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>1148</v>
       </c>
@@ -19029,7 +19027,7 @@
         <v>32</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>40</v>
@@ -19077,7 +19075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>1153</v>
       </c>
@@ -19088,7 +19086,7 @@
         <v>1155</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>40</v>
@@ -19136,7 +19134,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>1161</v>
       </c>
@@ -19147,7 +19145,7 @@
         <v>32</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>40</v>
@@ -19195,7 +19193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>1167</v>
       </c>
@@ -19206,7 +19204,7 @@
         <v>1168</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>40</v>
@@ -19254,7 +19252,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>1175</v>
       </c>
@@ -19265,7 +19263,7 @@
         <v>1177</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>40</v>
@@ -19313,7 +19311,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>1183</v>
       </c>
@@ -19324,7 +19322,7 @@
         <v>32</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>1185</v>
@@ -19372,7 +19370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1186</v>
       </c>
@@ -19383,7 +19381,7 @@
         <v>32</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>1185</v>
@@ -19431,7 +19429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>1190</v>
       </c>
@@ -19442,7 +19440,7 @@
         <v>1192</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>1185</v>
@@ -19490,7 +19488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>1196</v>
       </c>
@@ -19501,7 +19499,7 @@
         <v>1197</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>1185</v>
@@ -19549,7 +19547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>1201</v>
       </c>
@@ -19560,7 +19558,7 @@
         <v>1197</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>1185</v>
@@ -19608,7 +19606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>1202</v>
       </c>
@@ -19619,7 +19617,7 @@
         <v>32</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>1185</v>
@@ -19667,7 +19665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>1210</v>
       </c>
@@ -19678,7 +19676,7 @@
         <v>32</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>1185</v>
@@ -19726,7 +19724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>1214</v>
       </c>
@@ -19737,7 +19735,7 @@
         <v>32</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>1185</v>
@@ -19785,7 +19783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>1218</v>
       </c>
@@ -19796,7 +19794,7 @@
         <v>1219</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>1185</v>
@@ -19844,7 +19842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>1224</v>
       </c>
@@ -19855,7 +19853,7 @@
         <v>32</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>1185</v>
@@ -19903,7 +19901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>1228</v>
       </c>
@@ -19914,7 +19912,7 @@
         <v>32</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>1185</v>
@@ -19962,7 +19960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>1232</v>
       </c>
@@ -19973,7 +19971,7 @@
         <v>32</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>1185</v>
@@ -20021,7 +20019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="78" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>1235</v>
       </c>
@@ -20032,7 +20030,7 @@
         <v>32</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>1185</v>
@@ -20080,7 +20078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>1238</v>
       </c>
@@ -20091,7 +20089,7 @@
         <v>32</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>1185</v>
